--- a/Running projects/BAF Head Office/FTC14 floor revised invoice.xlsx
+++ b/Running projects/BAF Head Office/FTC14 floor revised invoice.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2F631-87DC-42A4-98F9-FC97634C1FBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1967C64B-EE20-4EC7-A8B9-73BEDDCE7D3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14505" yWindow="5745" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invocice" sheetId="4" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Invocice!$A$1:$D$37</definedName>
   </definedNames>
@@ -274,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,6 +363,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -381,20 +399,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -712,6 +718,25 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="47">
+          <cell r="I47">
+            <v>108263.682</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -978,7 +1003,7 @@
   <dimension ref="A9:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,8 +1333,8 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:5" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="16" t="s">
         <v>3</v>
       </c>
@@ -1318,8 +1343,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="16" t="s">
         <v>8</v>
       </c>
@@ -1357,56 +1382,56 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" s="28" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:5" s="28" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:8" s="28" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:8" s="28" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:8" s="28" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
@@ -1418,36 +1443,36 @@
       <c r="A24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="32"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="23">
         <v>417726</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="23"/>
       <c r="H27" s="25"/>
     </row>
@@ -1455,10 +1480,10 @@
       <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="27">
         <f>D26*70%</f>
         <v>292408.19999999995</v>
@@ -1469,10 +1494,10 @@
       <c r="A29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="32"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="26">
         <f>D26*30%</f>
         <v>125317.79999999999</v>
@@ -1483,23 +1508,41 @@
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="8"/>
+      <c r="D31" s="18">
+        <f>D28*5.5%</f>
+        <v>16082.450999999997</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D32" s="9"/>
+      <c r="D32" s="9">
+        <f>D28-D31</f>
+        <v>276325.74899999995</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="21"/>
+      <c r="D33" s="43">
+        <f>D28*5/118</f>
+        <v>12390.177966101694</v>
+      </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="43">
+        <f>D32-D33</f>
+        <v>263935.57103389828</v>
+      </c>
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="43">
+        <f>D34+'[1]1'!$I$47</f>
+        <v>372199.25303389831</v>
+      </c>
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1581,12 +1624,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A20:D22"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="B24:C24"/>
@@ -1594,6 +1631,12 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A20:D22"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
